--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_76_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_76_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.1372610501183695, 2.6721251801692443]</t>
+          <t>[2.1339562339864986, 2.675429996301115]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.06621284094017721, 0.21678830910537172]</t>
+          <t>[-0.06624494679980808, 0.2168204149650026]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.2895968921604131</v>
+        <v>0.2897049466440085</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2895968921604131</v>
+        <v>0.2897049466440085</v>
       </c>
       <c r="W2" t="n">
         <v>7.803163163163344</v>
